--- a/samples/SA-عينة-محلات-الكترونيات-preview.xlsx
+++ b/samples/SA-عينة-محلات-الكترونيات-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="374">
   <si>
     <t>GoogleMaps Link</t>
   </si>
@@ -40,397 +40,103 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%AA%D8%AC%D8%B1+%D8%A7%D9%84%D9%85%D8%AA%D8%B2%D8%A7%D9%85%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e37971ef6c62181:0x309ad853a46ba992!8m2!3d25.374925!4d49.565917!16s%2Fg%2F1hhhz8g_2!19sChIJgSHG9h6XNz4RkqlrpFPYmjA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D8%A8%D8%A7%D8%B9%D9%8A%D8%A7%D8%AA+%D9%84%D9%84%D9%83%D9%85%D8%A8%D9%8A%D9%88%D8%AA%D8%B1+%D9%88%D8%A7%D9%84%D8%A7%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x1572bbdf092f9b97:0x3a507de413cadf0c!8m2!3d29.9592887!4d40.2038136!16s%2Fg%2F11bxb6wzl5!19sChIJl5svCd-7chURDN_KE-R9UDo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%AF%D8%B9+%D9%88%D8%A7%D8%AA%D9%83%D9%88+%D8%A7%D9%84%D8%AE%D8%A7%D9%84%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49fba570146c5f:0xb4813d18fb4b6549!8m2!3d26.416398!4d50.1355578!16s%2Fg%2F11khnndgdr!19sChIJX2wUcKX7ST4RSWVL-xg9gbQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D8%B1%D8%A4%D9%8A%D8%A9+%D8%A7%D9%84%D9%86%D9%87%D8%A7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49fd00311e7547:0x7ba1185436265be3!8m2!3d26.3821758!4d50.05528!16s%2Fg%2F11vs5pq67_!19sChIJR3UeMQD9ST4R41smNlQYoXs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%8A%D8%B2%D9%8A%D8%AF+%D9%84%D8%B5%D9%8A%D8%A7%D9%86%D8%A9+%D8%A7%D9%84%D8%A3%D8%AC%D9%87%D8%B2%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D8%B2%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b91b20f5c05621:0xd57c0ab7db54270c!8m2!3d24.0145047!4d38.1930021!16s%2Fg%2F11h6ywdmwn!19sChIJIVbA9SAbuRURDCdU27cKfNU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A8%D8%A7%D8%B1%D9%83+%D9%84%D9%84%D8%A5%D9%84%D9%83%D8%AA%D8%B1%D9%88%D9%86%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f101254f0721f:0xa26d7e663fe286df!8m2!3d24.572499!4d46.6538523!16s%2Fg%2F11f3zvq9g_!19sChIJH3LwVBIQLz4R34biP2Z-baI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D9%88%D8%A7%D8%A8%D9%8A+%D8%A7%D9%84%D9%82%D8%B4%D9%8A%D8%B1%D9%8A+%D9%84%D9%84%D8%A5%D9%84%D9%83%D8%AA%D8%B1%D9%88%D9%86%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f031857375a43:0x1b1358247960c1f2!8m2!3d24.7048674!4d46.6918325!16s%2Fg%2F11f30pf844!19sChIJQ1o3VxgDLz4R8sFgeSRYExs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%A7%D9%84%D9%85+%D8%A7%D9%84%D9%81%D9%84%D9%83+%D8%A5%D9%84%D8%A7%D9%83%D8%AA%D8%B1%D9%88%D9%86%D9%8A%D8%A7%D8%AA+%D9%A2%E2%80%AD/data=!4m7!3m6!1s0x15e355f2776c52fb:0x5d8e59c1e3c781fa!8m2!3d18.2230994!4d42.5059319!16s%2Fg%2F11vw_knhzw!19sChIJ-1Jsd_JV4xUR-oHH48FZjl0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D8%B4%D9%88%D8%AF%D9%8A-+%D8%A7%D9%84%D8%B1%D8%B4%D9%88%D8%AF%D9%8A+%D9%84%D8%AA%D9%83%D9%8A%D9%8A%D9%81+%D9%88%D8%A7%D9%84%D8%AA%D8%A8%D8%B1%D9%8A%D8%AF+%28%D9%81%D8%B1%D8%B9+%D8%AD%D8%A7%D8%A6%D9%84%29%E2%80%AD/data=!4m7!3m6!1s0x1576476b8ae139cb:0x47288d26f6146dcf!8m2!3d27.5190797!4d41.7020389!16s%2Fg%2F11kq4xlq9l!19sChIJyznhimtHdhURz20U9iaNKEc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%85%D8%AD%D9%85%D8%AF+%D8%AD%D9%85%D8%AF%D8%A7%D9%86+%D8%A7%D9%84%D8%B9%D9%86%D8%B2%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15a9ad6bc9c1932d:0x955b36b480b7dfe!8m2!3d28.401746!4d36.5846778!16s%2Fg%2F11hdjhm3q0!19sChIJLZPByWutqRUR_n0LSGuzVQk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%B1%D9%88%D8%AF%D8%A9+%D9%87%D9%88%D8%A7%D9%83+%D9%84%D9%84%D8%A3%D8%AC%D9%87%D8%B2%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D8%B2%D9%84%D9%8A%D8%A9+%D9%88+%D8%A7%D9%84%D8%AA%D9%83%D9%8A%D9%8A%D9%81%E2%80%AD/data=!4m7!3m6!1s0x3e2f1b2d6f6f321d:0xcc0d3a6dda609f0b!8m2!3d24.5907503!4d46.6105371!16s%2Fg%2F11s34k8_4l!19sChIJHTJvby0bLz4RC59g2m06Dcw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%86%D8%A7%D8%A8+%D9%84%D9%84%D8%A7%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3fccbf1d63016837:0x3e19b56a72a7b79f!8m2!3d27.472482!4d48.4732583!16s%2Fg%2F11rw_mt7j2!19sChIJN2gBYx2_zD8Rn7encmq1GT4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%85%D8%AD%D8%B3%D9%86+%D8%A7%D9%84%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%85%D8%AD%D8%B3%D9%86+%D8%A7%D9%84%D8%B3%D9%88%D9%8A%D9%84%D9%85+%D9%81%D8%B1%D8%B9+%D8%A8%D8%B1%D9%8A%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581e3e0e6c21817:0xce1ba9ec394019e8!8m2!3d26.3178927!4d43.9782403!16s%2Fg%2F11h0ms7btb!19sChIJFxjC5uDjgRUR6BlAOeypG84?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D8%B9%D9%81%D8%B1+%D9%81%D8%B6%D9%84+%D9%84%D8%B5%D9%8A%D8%A7%D9%86%D8%A9+%D8%A7%D9%84%D8%A3%D8%AC%D9%87%D8%B2%D8%A9+-+%28+%D9%84%D8%A7%D8%A8%D8%AA%D9%88%D8%A8+-+%D9%83%D9%85%D8%A8%D9%8A%D9%88%D8%AA%D8%B1+-+%D8%A8%D9%8A%D8%B9+%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA%29%E2%80%AD/data=!4m7!3m6!1s0x3e35ffba0c6fc5a3:0x50c9fa3e517c7c0a!8m2!3d26.5398124!4d49.98854!16s%2Fg%2F11c5b2t4zl!19sChIJo8VvDLr_NT4RCnx8UT76yVA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%8A+%D8%A7%D8%AA%D8%B4+%D8%A7%D8%B3%D8%AA%D9%88%D8%B1+%28BH+STORE%29+%D8%A7%D9%84%D8%A7%D8%AC%D9%87%D8%B2%D8%A9+%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e3797335ba43807:0x73adfa5547b1923f!8m2!3d25.4288337!4d49.5725793!16s%2Fg%2F11flbrfj_y!19sChIJBzikWzOXNz4RP5KxR1X6rXM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%8A+%D9%83%D9%8A+%D9%83%D9%85%D8%A8%D9%8A%D9%88%D8%AA%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e49e9c19bb8778b:0xb6bc09db5c9da795!8m2!3d26.2810713!4d50.2045319!16s%2Fg%2F11krbv7yyf!19sChIJi3e4m8HpST4RlaedXNsJvLY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%8A%D8%A7%D9%81%D8%B9%D9%8A+%D9%84%D8%B5%D9%8A%D8%A7%D9%86%D8%A9+%D8%A7%D9%84%D8%AD%D8%A7%D8%B3%D8%A8+%D8%A7%D9%84%D8%A2%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bdbe376dd8bfbf:0x85a73edef1ef616f!8m2!3d24.4737018!4d39.6345661!16s%2Fg%2F11f2gsjcjz!19sChIJv7_YbTe-vRURb2Hv8d4-p4U?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Rtx+3060+nvidia/data=!4m7!3m6!1s0x3e2f03e6e5b0778b:0x5657fbad83bcafa!8m2!3d24.6814402!4d46.6905406!16s%2Fg%2F11j0b35yq6!19sChIJi3ew5eYDLz4R-so72Lp_ZQU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D8%B1%D8%AA%D9%82%D8%A7%D8%A1+%D8%A7%D9%84%D9%81%D8%B6%D8%A7%D8%A1+%D9%84%D9%84%D8%AD%D8%B3%D8%A7%D8%A8+%D8%A7%D9%84%D8%A7%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f05001b0591d5:0x985d303c7d46ef7c!8m2!3d24.6136426!4d46.7079093!16s%2Fg%2F11ldtqtx_s!19sChIJ1ZEFGwAFLz4RfO9GfTwwXZg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%85%D8%B3%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15e355e28f848361:0x7614d10c8281030!8m2!3d18.2465202!4d42.5117133!16s%2Fg%2F11g0hprwc5!19sChIJYYOEj-JV4xURMBAoyBBNYQc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D9%85%D8%AC%D9%85%D9%88%D8%B9%D8%A9+%D8%A7%D9%84%D8%B9%D8%AC%D9%88+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%87%E2%80%AD/data=!4m7!3m6!1s0x157f5790dae684a5:0x6cea3ae54b05eaaa!8m2!3d26.3678611!4d43.9301421!16s%2Fg%2F11dfjvpnmv!19sChIJpYTm2pBXfxURquoFS-U66mw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%88%D9%84%D9%88%D8%A9+%D9%84%D9%84%D8%B5%D9%8A%D8%A7%D9%86%D8%A9+%D8%A7%D9%84%D9%84%D8%A7%D8%A8+%D8%AA%D9%88%D8%A8%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15a9ad006e47092f:0x4699a29612fe51e1!8m2!3d28.3998981!4d36.5753656!16s%2Fg%2F11vymwb5rv!19sChIJLwlHbgCtqRUR4VH-EpaimUY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D9%87%D9%88%D8%AF+%D8%A7%D9%84%D8%AA%D9%82%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fcaa56e25461c3:0x92f8dc4a517bf248!8m2!3d18.2311573!4d42.5934563!16s%2Fg%2F11fz93mrnf!19sChIJw2FU4laq_BURSPJ7UUrc-JI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%E2%80%8F%D8%A7%D9%84%D9%85%D9%85%D9%84%D9%83%D8%A9+%D9%84%D9%84%D8%A5%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15943d42b108db63:0x7ffc8663ae292f8d!8m2!3d23.5035797!4d40.8855639!16s%2Fg%2F11l59hy10y!19sChIJY9sIsUI9lBURjS8prmOG_H8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Logic+Links+For+Technology+Soluations/data=!4m7!3m6!1s0x15c3ce2a886ad057:0x2ad4477e49e9297a!8m2!3d21.534048!4d39.198489!16s%2Fg%2F1hc5vbzyp!19sChIJV9BqiCrOwxUReinpSX5H1Co?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D9%88%D9%87%D8%B1%D8%A9+%D9%82%D9%86%D8%A7+%D9%84%D9%84%D8%A7%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15fb55bcf6b92d8b:0x43589e3867e43dc2!8m2!3d18.2727281!4d42.6143901!16s%2Fg%2F11f8jx53x7!19sChIJiy259rxV-xURwj3kZzieWEM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D9%88%D9%89+%D8%A7%D9%84%D8%A3%D9%88%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c21b8de4a4ccdb:0xf4f1cc1f2f956db!8m2!3d21.4400441!4d39.80103!16s%2Fg%2F11s2xxty1f!19sChIJ28yk5I0bwhUR21b58sEcTw8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B2%D8%B9%D9%8A%D9%85+%D8%B3%D8%AA%D9%88%D8%B1+%D9%84%D9%84%D8%A3%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15f0c1350c07fca3:0x86fadce98d4dd42a!8m2!3d19.5374967!4d43.5191057!16s%2Fg%2F11h262wlh6!19sChIJo_wHDDXB8BURKtRNjenc-oY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%84%D9%87+%D9%84%D9%84%D8%A5%D9%84%D9%83%D8%AA%D8%B1%D9%88%D9%86%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15bdbeff1467f69f:0x1c297a7efa00b877!8m2!3d24.4760145!4d39.6090273!16s%2Fg%2F11gcn9xb4r!19sChIJn_ZnFP--vRURd7gA-n56KRw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Shopkees+Trading+Company/data=!4m7!3m6!1s0x15c3d1506fd92793:0xa6cf2140476ca3f!8m2!3d21.5163476!4d39.185866!16s%2Fg%2F11v3qpgmyz!19sChIJkyfZb1DRwxURP8p2BBTybAo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%B5%D8%AF%D8%A7%D8%B1%D8%A9+%D8%AA%D9%83%D9%86%D9%88%D9%84%D9%88%D8%AC%D9%8A%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e35a0f571683e2b:0xff926f40c0689d02!8m2!3d27.0061289!4d49.6493959!16s%2Fg%2F11gfmb5y8s!19sChIJKz5ocfWgNT4RAp1owEBvkv8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AF%D8%B1%D8%B9+%D8%A7%D9%84%D9%88%D8%A7%D9%82%D9%8A+%D9%84%D9%84%D8%B5%D9%8A%D8%A7%D9%86%D8%A9+-+%D8%B5%D9%8A%D8%A7%D9%86%D8%A9+%D8%B4%D8%A7%D8%B4%D8%A7%D8%AA+%D9%83%D9%85%D8%A8%D9%8A%D9%88%D8%AA%D8%B1+%D8%A8%D8%B1%D9%85%D8%AC%D8%A9+%D9%83%D9%85%D8%A8%D9%8A%D9%88%D8%AA%D8%B1+%D8%A8%D8%B1%D9%85%D8%AC%D8%A9+%D8%B1%D8%B3%D9%8A%D9%81%D8%B1%D8%A7%D8%AA+%D8%B5%D9%8A%D8%A7%D9%86%D8%A9+%D8%A8%D9%84%D8%A7%D8%B3%D8%AA%D9%8A%D8%B4%D9%86+%D8%AD%D9%85%D8%A7%D9%8A%D8%A9+%D8%B6%D8%AF+%D8%A7%D9%84%D9%83%D8%B3%D8%B1+%D8%AC%D9%85%D9%8A%D8%B9+%D8%A7%D9%84%D9%85%D9%82%D8%A7%D8%B3%D8%A7%D8%AA+%D8%AD%D8%AA%D9%89+100%E2%80%AD/data=!4m7!3m6!1s0x3e49fd1abd800f63:0xdcc778fd81f853a!8m2!3d26.3992264!4d50.0419672!16s%2Fg%2F11sx697tzr!19sChIJYw-AvRr9ST4ROoUf2I93zA0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%88%D8%B1%D8%B4%D8%A9%D8%B9%D8%B1%D8%B9%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x156c0f4e746bcff3:0xdf49d434e1bd904f!8m2!3d30.9888008!4d41.0566019!16s%2Fg%2F11fn618lt6!19sChIJ889rdE4PbBURT5C94TTUSd8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D9%8A%D9%85+%D8%A8%D9%88%D9%8A%D9%86%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x1581ef005e0ca109:0xd1f85583b59d3c!8m2!3d26.0988136!4d43.9890644!16s%2Fg%2F11vym0kkj3!19sChIJCaEMXgDvgRURPJ21g1X40QA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A7%D8%B3%D8%A9+%D8%A7%D9%84%D9%85%D8%AD%D9%85%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581e29cfb766a83:0xdde48a1c1e3bb838!8m2!3d26.3231872!4d43.9703506!16s%2Fg%2F11f_wgzh94!19sChIJg2p2-5zigRUROLg7HhyK5N0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AA%D9%82%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AB%D8%A9+%D9%84%D9%84%D8%AD%D8%A7%D8%B3%D8%A8%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e354ca0a84a0f1:0xbae9eb8cd143eb37!8m2!3d18.2178562!4d42.5471641!16s%2Fg%2F11fz8xrytb!19sChIJ8aCECspU4xURN-tD0Yzr6bo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/AL+AMRO+FOR+COMPUTER+S/data=!4m7!3m6!1s0x3e2f07c28e319609:0x55eb89f2d5d89b8c!8m2!3d24.6897191!4d46.7643953!16s%2Fg%2F11sm7mnkfy!19sChIJCZYxjsIHLz4RjJvY1fKJ61U?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ad50677e57e5:0xe12ee7efc2ebf2ca!8m2!3d28.4112724!4d36.5278063!16s%2Fg%2F11rhxn1bxh!19sChIJ5Vd-Z1CtqRURyvLrwu_nLuE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Al-watania+computers/data=!4m7!3m6!1s0x3e254f1a86aa108d:0x4d03429fb912135a!8m2!3d24.1565133!4d47.3220474!16s%2Fg%2F11fzt3m8dj!19sChIJjRCqhhpPJT4RWhMSuZ9CA00?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%A7%D9%81%D8%B0+%D8%A7%D9%84%D8%AA%D9%82%D9%86%D9%8A%D8%A9+%D9%84%D9%84%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15fec3a414eec69d:0xb14f95d1d08bcc83!8m2!3d17.534756!4d44.2103644!16s%2Fg%2F11hz2k0b69!19sChIJncbuFKTD_hURg8yL0NGVT7E?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%85%D8%A8%D9%8A%D9%88%D8%AA%D8%B1+%D9%86%D8%A7%D9%81%D8%B0%D8%A9+%D9%84%D8%A7%D8%A8+%D8%AA%D9%88%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15b9079a74804f67:0xe50dc8fe05efacae!8m2!3d24.0832993!4d38.059493!16s%2Fg%2F11l2p03dcr!19sChIJZ0-AdJoHuRURrqzvBf7IDeU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B3%D9%84%D8%A7%D9%85+%D9%84%D9%84%D8%A7%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f11654672f521:0x7788d353d892d76b!8m2!3d24.5753883!4d46.6620573!16s%2Fg%2F11f610wkk_!19sChIJIfVyRmURLz4Ra9eS2FPTiHc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B2%D9%82%D8%B2%D9%88%D9%82+%D9%84%D9%84%D8%A3%D8%AC%D9%87%D8%B2%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D8%B2%D9%84%D9%8A%D8%A9+-+%D9%85%D8%B9%D8%B1%D8%B6+%D8%A7%D9%84%D8%A8%D9%82%D8%B9%D8%A7%D8%A1+%D8%AD%D8%A7%D8%A6%D9%84%E2%80%AD/data=!4m7!3m6!1s0x1577434e6bc276eb:0xa2f9692c93820057!8m2!3d27.9047251!4d42.3878608!16s%2Fg%2F11bw4b4yb8!19sChIJ63bCa05DdxURVwCCkyxp-aI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%B1%D8%AD%D9%85%D9%86+%D8%A7%D9%84%D9%85%D8%AD%D9%8A%D9%85%D9%8A%D8%AF+%D9%84%D9%84%D8%A7%D8%AC%D9%87%D8%B2%D9%87+%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3fd740ee155cda5b:0x497b3bff98c3d94d!8m2!3d28.4193561!4d45.9543474!16s%2Fg%2F11c1vm3wkw!19sChIJW9pcFe5A1z8RTdnDmP87e0k?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%85%D8%AA%D9%81%D9%88%D9%82%D9%88%D9%86+%D9%84%D9%84%D8%AD%D8%A7%D8%B3%D8%A8%D8%A7%D8%AA+%D8%A7%D9%84%D8%A2%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ad59ee7d0139:0x32c491c08ff323b1!8m2!3d28.4009398!4d36.5727826!16s%2Fg%2F11ffh59g14!19sChIJOQF97lmtqRURsSPzj8CRxDI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D8%B9%D8%A8%D9%83%D8%B1%D9%8A+%D9%84%D9%84%D8%AA%D9%83%D9%8A%D9%8A%D9%81+%D9%88%D8%A7%D9%84%D8%A3%D8%AC%D9%87%D8%B2%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e4a0165389fb4a9:0x60d160c7605a5553!8m2!3d26.5360785!4d50.0265049!16s%2Fg%2F11pcrxybs0!19sChIJqbSfOGUBSj4RU1VaYMdg0WA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D8%A7%D8%B4%D8%AF+%D9%84%D9%84%D8%A3%D8%AC%D9%87%D8%B2%D8%A9+%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e37979ff4bc40f3:0xe4430187a1ef7885!8m2!3d25.3865514!4d49.5480374!16s%2Fg%2F11c51ryp35!19sChIJ80C89J-XNz4RhXjvoYcBQ-Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%86%D9%8A%D8%B2%D9%83+%D9%84%D9%84%D8%AC%D9%88%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15fec2f4f077ae63:0x6d93e25c7401fff1!8m2!3d17.534753!4d44.2130162!16s%2Fg%2F11c37mwyqx!19sChIJY6538PTC_hUR8f8BdFzik20?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AB%D8%A8%D9%8A%D8%AA%D9%8A+%D9%84%D9%84%D8%A7%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15ea2fdf777095a3:0xd70521dbc6e2d5d7!8m2!3d21.4371875!4d40.4824375!16s%2Fg%2F11ssrj2qx_!19sChIJo5Vwd98v6hUR19XixtshBdc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%A7%D9%86%D8%A9+%D8%A7%D9%84%D8%B4%D8%A7%D8%B4%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e35a1b9a26a3189:0xb323aa93339c0d7f!8m2!3d27.0129763!4d49.6450166!16s%2Fg%2F11h0c0b0zj!19sChIJiTFqormhNT4Rfw2cM5OqI7M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Anowar+Hossain/data=!4m7!3m6!1s0x3e2fabb843e487f7:0x9f360ae0f53294b3!8m2!3d24.8198464!4d46.8868205!16s%2Fg%2F11t3d1vtm9!19sChIJ94fkQ7irLz4Rs5Qy9eAKNp8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D9%81%D9%88%D9%81+%D8%A7%D9%84%D8%AD%D9%88%D8%AF%D8%A9+%D9%84%D9%84%D8%A7%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f1bd640417217:0x1db75148672ed744!8m2!3d24.5932825!4d46.6489884!16s%2Fg%2F11h93qx4l2!19sChIJF3JBQNYbLz4RRNcuZ0hRtx0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%88%D9%85+%D9%84%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15c3cfb8275b8835:0xd25deb234cd91909!8m2!3d21.5168455!4d39.1855468!16s%2Fg%2F11g0kbrzx7!19sChIJNYhbJ7jPwxURCRnZTCPrXdI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%83%D8%AA%D8%B1%D9%88%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D9%86%D8%AC%D9%88%D9%85%E2%80%AD/data=!4m7!3m6!1s0x1607f526e415b2c3:0xbc4c035124dbb870!8m2!3d16.9682185!4d42.8302089!16s%2Fg%2F11j3tm3wmf!19sChIJw7IV5Cb1BxYRcLjbJFEDTLw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D8%B3%D9%8A%D8%A7+%D8%A7%D9%84%D8%B7%D8%A7%D8%A6%D9%81+%D8%A7%D9%84%D8%A7%D9%85%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e98931aec9e835:0x71bfee8d9a14a39!8m2!3d21.275539!4d40.418475!16s%2Fg%2F11f52_d7qt!19sChIJNejJrjGJ6RUROUqh2ej-Gwc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A5%D9%84+%D8%AC%D9%8A+%D9%86%D8%A7%D8%BA%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x157f573a9e5856b7:0x12c8faf277e628f1!8m2!3d26.4125776!4d43.9170034!16s%2Fg%2F11cmnns568!19sChIJt1ZYnjpXfxUR8Sjmd_L6yBI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%82%D9%86%D9%8A+%D9%84%D8%B5%D9%8A%D8%A7%D9%86%D8%A9+%D8%AC%D9%85%D9%8A%D8%B9+%D8%A7%D9%84%D8%A7%D8%AC%D9%87%D8%B2%D9%87+%D8%A7%D9%84%D8%A5%D9%84%D9%83%D8%AA%D8%B1%D9%88%D9%86%D9%8A%D8%A9%28%D8%B4%D8%A7%D8%B4%D8%A7%D8%AA+%D8%A8%D9%84%D8%A7%D8%B2%D9%85%D8%A7+%D8%A8%D9%84%D8%A7%D8%B3%D8%AA%D9%8A%D8%B4%D9%86%E2%80%AD/data=!4m7!3m6!1s0x156c0d00346a80b3:0x7a897b7d86ebb53f!8m2!3d30.9847498!4d41.0245775!16s%2Fg%2F11vrrcl4m1!19sChIJs4BqNAANbBURP7Xrhn17iXo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%87%D8%AF%D9%8A%D9%84+%D9%84%D9%84%D8%A3%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e3796c8855d1f23:0x35f87c80c8017f5e!8m2!3d25.3678226!4d49.5859497!16s%2Fg%2F11g7_6qvcy!19sChIJIx9dhciWNz4RXn8ByIB8-DU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%81%D8%A7%D8%B1%D8%B3+%D9%84%D8%B5%D9%8A%D8%A7%D9%86%D8%A9+%D8%A7%D9%84%D9%83%D9%85%D8%A8%D9%8A%D9%88%D8%AA%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c3cf8b9b58cc51:0xb32b59462f68ce74!8m2!3d21.5288132!4d39.1850548!16s%2Fg%2F11vldq5yvn!19sChIJUcxYm4vPwxURdM5oL0ZZK7M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Smart+house+computers/data=!4m7!3m6!1s0x3e2f05c9b0f6a723:0x5a06f2dc3d770e01!8m2!3d24.6464018!4d46.7014487!16s%2Fg%2F11k9hcyy4t!19sChIJI6f2sMkFLz4RAQ53PdzyBlo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D8%B1%D9%82%D9%85%D9%8A+%D9%84%D9%84%D8%A7%D9%83%D8%AA%D8%B1%D9%88%D9%86%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x157fe9f4c8b7e30d:0x81505a47738dd49!8m2!3d26.2952595!4d44.810195!16s%2Fg%2F11ks0f8kxy!19sChIJDeO3yPTpfxURSd04d6QFFQg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D8%B3%D8%A7%D9%83%D8%B1+%D9%84%D9%84%D8%A3%D8%AC%D9%87%D8%B2%D8%A9+%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A6%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%AA%D9%83%D9%8A%D9%8A%D9%81+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%AD%D8%B1%D8%A7%D8%AC+3%E2%80%AD/data=!4m7!3m6!1s0x3e2f0f203f3438c9:0x6051216fe962e502!8m2!3d24.5921218!4d46.7322365!16s%2Fg%2F11ffvshv_2!19sChIJyTg0PyAPLz4RAuVi6W8hUWA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B3%D8%A7%D9%87%D8%B1+%D9%84%D9%84%D8%A7%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e485a01d117acd:0x959dfe4723effa33!8m2!3d18.5470452!4d42.0377251!16s%2Fg%2F11dx8jg5ps!19sChIJzXoRHaCF5BURM_rvI0f-nZU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%8A%D8%A7%D8%A8%D8%A7%D9%86%D9%8A+%D9%84%D9%84%D8%A8%D9%84%D8%A7%D9%8A%D8%B3%D8%AA%D9%8A%D8%B4%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e254f1cc6d5c60f:0x5abb319488b657!8m2!3d24.1590249!4d47.3271335!16s%2Fg%2F11c1sjs_13!19sChIJD8bVxhxPJT4RV7aIlDG7WgA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%A7%D8%A8+%D8%AF%D8%A8%D9%8A+%D9%84%D9%84%D8%A7%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15979b7d51f64ef3:0x65260df38823cd0b!8m2!3d24.8658108!4d40.4982783!16s%2Fg%2F11h4pcgfzs!19sChIJ8072UX2blxURC80jiPMNJmU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%84%D9%8A%D8%AB+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%D8%A9+%D9%84%D9%84%D8%A7%D9%84%D9%83%D8%AA%D8%B1%D9%88%D9%86%D9%8A%D8%A7%D8%AA+%D9%88%D8%A7%D9%84%D9%85%D9%83%D9%8A%D9%81%D8%A7%D8%AA+%D9%88%D8%A7%D9%84%D8%A7%D8%AC%D9%87%D8%B2%D8%A9+%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e35a1301fb76973:0x382f53a38c172f89!8m2!3d27.0174889!4d49.6424578!16s%2Fg%2F11ff2vrqr5!19sChIJc2m3HzChNT4RiS8XjKNTLzg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%85%DB%8C%D8%B1+%D8%B5%DB%8C%D8%A7%D9%86%D9%87+%DA%A9%D9%85%D8%A8%D9%8A%D9%88%D8%AA%D8%B1+%D8%AA%D8%B1%D9%83%D9%8A%D8%A8+%D8%A7%D9%84%D9%83%D8%A7%D9%85%D9%8A%D8%B1%D8%A7%D8%AA+%D9%85%D8%B1%D8%A7%D9%82%D8%A8%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e49fd75e5cfcc67:0x4d929088b2a3c5f!8m2!3d26.4001625!4d50.0412422!16s%2Fg%2F11tsv817d5!19sChIJZ8zP5XX9ST4RXzwqiwgp2QQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B2%D8%B9%D9%8A%D9%85+%D9%84%D9%84%D8%A7%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15f28a953f4db10b:0xeb99a7bb83daaa8!8m2!3d21.2557217!4d42.8430265!16s%2Fg%2F11f0w_rjgr!19sChIJC7FNP5WK8hURqKo9uHuauQ4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A7%D9%8A%D9%83%D8%B1%D9%88%D9%86%D8%AA+%D9%84%D8%AA%D9%82%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%B9%D9%84%D9%88%D9%85%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x156c1365d893498b:0x75b826e2855a7281!8m2!3d30.9558658!4d41.0049344!16s%2Fg%2F11s_w0sk8l!19sChIJi0mT2GUTbBURgXJaheImuHU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B9%D9%85%D8%B1%D9%8A+%D9%84%D9%84%D8%A7%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e49fda7efe650c1:0x2faa4f3fb58682cf!8m2!3d26.4213729!4d50.0890853!16s%2Fg%2F11fnpp7rvp!19sChIJwVDm76f9ST4Rz4KGtT9Pqi8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%AC%D9%88%D8%A7%D9%87%D8%B1+%D8%B9%D8%A7%D9%8A%D8%B6%E2%80%AD/data=!4m7!3m6!1s0x15fb598a8d2a5ddd:0x480f4b2cdc476654!8m2!3d18.2994593!4d42.7291385!16s%2Fg%2F11gw1xw1gd!19sChIJ3V0qjYpZ-xURVGZH3CxLD0g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Badiyya/data=!4m7!3m6!1s0x3e2f1bb2398be447:0x780a2452cfc7fa87!8m2!3d24.6018026!4d46.6516735!16s%2Fg%2F11sdyttzkr!19sChIJR-SLObIbLz4Rh_rHz1IkCng?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%86%D8%A7%D9%8A%D8%A8%D8%B1+%D9%82%D9%8A%D9%85%D8%B2+-+%D8%A7%D9%84%D8%A8%D9%83%D9%8A%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1582229b6e940467:0xd3c8e63a29b2db83!8m2!3d26.1341377!4d43.6647922!16s%2Fg%2F11f33qyj48!19sChIJZwSUbpsighURg9uyKTrmyNM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D9%87+%D8%A7%D9%84%D8%A8%D8%A7%D8%A8%D8%B7%D9%8A%D9%86+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%87%D8%8C+%D8%A7%D9%84%D9%85%D8%B9%D8%B1%D8%B6+%D8%A7%D9%84%D8%B1%D8%A6%D9%8A%D8%B3%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1607e39dc632e731:0x252dc11c796f0416!8m2!3d16.9058519!4d42.552438!16s%2Fg%2F11gh9fr3nk!19sChIJMecyxp3jBxYRFgRveRzBLSU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%88%D8%A7%D8%AD%D8%AF+%D8%A7%D9%84%D8%A8%D9%83%D9%8A%D8%B1%D9%8A+%D9%84%D9%84%D8%A3%D8%AC%D9%87%D8%B2%D8%A9+%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15ef45fc04bb0ba1:0x23f2f5b99d6f5a5d!8m2!3d20.0181942!4d41.4547839!16s%2Fg%2F11fmp8rb46!19sChIJoQu7BPxF7xURXVpvnbn18iM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%B7%D9%82%D8%A9+%D8%A7%D9%84%D8%AA%D9%83%D9%86%D9%88%D9%84%D9%88%D8%AC%D9%8A%D8%A7+%D9%84%D9%84%D8%AD%D8%A7%D8%B3%D8%A8+%D8%A7%D9%84%D8%A2%D9%84%D9%8A+%D9%88%D8%A7%D9%84%D8%A5%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2effba1bca13e5:0x1471998deaf806ed!8m2!3d24.7843669!4d46.7750948!16s%2Fg%2F11h__zkw7k!19sChIJ5RPKG7r_Lj4R7Qb46o2ZcRQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%85%D8%A7%D8%B1%D8%AA+%D8%B3%D9%86%D8%AA%D8%B1+%D8%A7%D9%84%D9%83%D8%AA%D8%B1%D9%8A%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15c163a24a1d9259:0x5d0ee2fa5701bfbe!8m2!3d21.7741697!4d39.0928376!16s%2Fg%2F11sh1f7hm7!19sChIJWZIdSqJjwRURvr8BV_riDl0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%82%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e37917e2f222801:0x2440843098311481!8m2!3d25.3413452!4d49.5873726!16s%2Fg%2F11g3zslss6!19sChIJASgiL36RNz4RgRQxmDCEQCQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%87%D8%A7%D8%AA%D9%81+%D9%83%D9%86%D8%A7%D9%86+%D9%84%D8%A8%D9%8A%D8%B9+%D8%A7%D9%84%D8%AC%D9%88%D8%A7%D9%84%D8%A7%D8%AA+%D9%88+%D8%B5%D9%8A%D8%A7%D9%86%D8%AA%D9%87%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15bdbfad4cdc9423:0xbd4918fa1612d0ea!8m2!3d24.4772393!4d39.587273!16s%2Fg%2F11vqqzpfr6!19sChIJI5TcTK2_vRUR6tASFvoYSb0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85+%D8%B9%D8%A8%D8%AF%D9%87+%D9%81%D9%84%D9%82%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e4855135ac795d:0x85740b23f3250806!8m2!3d18.541682!4d42.0483504!16s%2Fg%2F11v42l10yl!19sChIJXXmsNVGF5BURBggl8yMLdIU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%86%D9%88%D8%A7%D9%81+%D8%A7%D9%84%D8%B3%D8%A8%D9%8A%D8%B9%D9%8A+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bd95d0f8c297af:0x1c8905860eaac133!8m2!3d24.4811438!4d39.6848302!16s%2Fg%2F11f0_g9h0l!19sChIJr5fC-NCVvRURM8GqDoYFiRw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AA%D8%AC%D8%B1+%D8%A7%D8%A8%D9%88+%D8%AA%D8%B1%D9%83%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1581ed439a55f8f5:0xb0163c2cdac4262b!8m2!3d26.0735358!4d44.0144224!16s%2Fg%2F11nmjn5jrk!19sChIJ9fhVmkPtgRURKybE2iw8FrA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%B3%D9%87%D8%A7%D9%85+%D8%A7%D9%84%D8%B4%D8%B1%D9%82+%D9%84%D9%84%D8%AA%D8%A8%D8%B1%D9%8A%D8%AF+%D9%88%D8%A7%D9%84%D8%AA%D9%83%D9%8A%D9%8A%D9%81%E2%80%AD/data=!4m7!3m6!1s0x3e49fd7105a96f9f:0x5e817729089d9c81!8m2!3d26.4471905!4d50.0875996!16s%2Fg%2F11kql6yx6j!19sChIJn2-pBXH9ST4RgZydCCl3gV4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Doum+Computers/data=!4m7!3m6!1s0x15c3cfaf6ec919cf:0xbcdc45b5150b1a57!8m2!3d21.5257494!4d39.185735!16s%2Fg%2F11qq4g819s!19sChIJzxnJbq_PwxURVxoLFbVF3Lw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AF%D8%B1%D8%B9%D9%8A%D8%A9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%E2%80%AD/data=!4m7!3m6!1s0x3e2ee18a15ad2537:0x721d96a544107b6b!8m2!3d24.7511762!4d46.5384869!16s%2Fg%2F11l20jpvfl!19sChIJNyWtFYrhLj4Ra3sQRKWWHXI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D8%A8%D9%88%D8%B5%D9%84%D8%A9+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9+%28+%D9%88%D9%83%D9%8A%D9%84+%D8%A7%D9%8A%D9%83%D9%88%D9%85+icom+%29%E2%80%AD/data=!4m7!3m6!1s0x157f59688fd3e2a3:0xc0758784ccc79aab!8m2!3d26.3394093!4d43.9812227!16s%2Fg%2F11p5t84cll!19sChIJo-LTj2hZfxURq5rHzISHdcA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%86%D8%AC%D9%88%D9%85+%D8%AA%D9%82%D9%86%D9%8A+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581ebbbdec4efeb:0x5172a49f99dbcefd!8m2!3d26.0773108!4d44.0300193!16s%2Fg%2F11h06xy1dx!19sChIJ6-_E3rvrgRUR_c7bmZ-kclE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/FALS+electronic/data=!4m7!3m6!1s0x3e49e5c61ef6bd8f:0x2742842c18b0af39!8m2!3d26.3347526!4d50.1558507!16s%2Fg%2F11nmscd467!19sChIJj732HsblST4ROa-wGCyEQic?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Noura+Saedan+Al-Shaibani+Information+Technology/data=!4m7!3m6!1s0x3e2f03001c9d8703:0xa9bd1670175c5389!8m2!3d24.6813563!4d46.690839!16s%2Fg%2F11vx5xyqn5!19sChIJA4edHAADLz4RiVNcF3AWvak?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A8%D8%B1%D9%86%D8%B3+%D9%84%D9%84%D8%B5%D9%8A%D8%A7%D9%86%D8%A9+%D8%AD%D8%A7%D8%B3%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15a9ad65aa08f7d3:0xbfb77d101be3a1ad!8m2!3d28.399123!4d36.576519!16s%2Fg%2F11g4cnyyg9!19sChIJ0_cIqmWtqRURraHjGxB9t78?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%B5%D9%85%D8%A9+%D8%A5%D8%A8%D8%AF%D8%A7%D8%B9+%D8%AF%D8%B4+%D9%88%D9%83%D8%A7%D9%85%D9%8A%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e98d5d117f3b4d:0x3d19d3a86b525ade!8m2!3d21.2215906!4d40.3670584!16s%2Fg%2F11rjv_1_t9!19sChIJTTt_EV2N6RUR3lpSa6jTGT0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D9%83%D9%86+%D8%A7%D9%84%D8%AE%D9%84%D9%8A%D9%84+%D9%84%D9%84%D8%B9%D8%B7%D9%88%D8%A7%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c2050a0b955bdd:0x4192dbc3acca8fb2!8m2!3d21.4123754!4d39.8216844!16s%2Fg%2F11j3gk46kv!19sChIJ3VuVCwoFwhURso_KrMPbkkE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Al-Majd+Al-Thani+Establishment+for+Electronic+Devices/data=!4m7!3m6!1s0x3fccbf97589d2947:0x6c56c0faba597c1!8m2!3d27.471375!4d48.4727822!16s%2Fg%2F11vyvgh5zb!19sChIJRymdWJe_zD8RwZelqw9sxQY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%84%D9%81%D9%88%D9%86+%D8%AA%D8%A8%D9%88%D9%83+%D9%84%D9%84%D8%A7%D8%AA%D8%B5%D8%A7%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15a9ad232021414d:0x94591d7b0f1eac56!8m2!3d28.3962936!4d36.5677787!16s%2Fg%2F11svq9rmx8!19sChIJTUEhICOtqRURVqweD3sdWZQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%B7%D9%85%D9%88%D8%AD+%D8%B9%D8%A7%D9%84%D9%85+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f1b725a71157f:0xded731025d3c711d!8m2!3d24.5890555!4d46.6444039!16s%2Fg%2F11srzr8bqx!19sChIJfxVxWnIbLz4RHXE8XQIx194?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/OHOD+ELECTRIC+MADINA-3+BRANCH/data=!4m7!3m6!1s0x15bdc071a25ad76d:0x89dd0f2f6e5db34a!8m2!3d24.4201045!4d39.6247585!16s%2Fg%2F11c37k_lzq!19sChIJbddaonHAvRURSrNdbi8P3Yk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B4%D9%83%D8%A7%D8%A9+%D8%A7%D9%84%D8%A8%D9%84%D8%AF+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c2018aa4a06599:0xf475b2b4fea8e745!8m2!3d21.471841!4d39.9048013!16s%2Fg%2F11v03z7grz!19sChIJmWWgpIoBwhURReeo_rSydfQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/SYSTEM+ELACTRONICS+THUWAL/data=!4m7!3m6!1s0x15c11d32def619c3:0xe25890c2fef6ebe9!8m2!3d22.2873688!4d39.1127594!16s%2Fg%2F11rjz55j_x!19sChIJwxn23jIdwRUR6ev2_sKQWOI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%AE%D8%B7%D9%88%D8%B7+%D8%A7%D9%84%D8%AD%D8%A7%D8%B3%D8%A8+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2fa755d32ba123:0x87f5b5b8bae45706!8m2!3d24.5742373!4d46.8276954!16s%2Fg%2F11f3x8vcx4!19sChIJI6Er01WnLz4RBlfkuri19Yc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>المتجر المتزامن</t>
-  </si>
-  <si>
-    <t>رباعيات للكمبيوتر والاتصالات</t>
-  </si>
-  <si>
-    <t>مستودع واتكو الخالدية</t>
-  </si>
-  <si>
-    <t>مؤسسة الرؤية النهارية</t>
-  </si>
-  <si>
-    <t>مركز يزيد لصيانة الأجهزة المنزلية</t>
-  </si>
-  <si>
-    <t>مبارك للإلكترونيات</t>
-  </si>
-  <si>
-    <t>روابي القشيري للإلكترونيات</t>
-  </si>
-  <si>
-    <t>عالم الفلك إلاكترونيات ٢</t>
-  </si>
-  <si>
-    <t>الرشودي- الرشودي لتكييف والتبريد (فرع حائل)</t>
-  </si>
-  <si>
-    <t>مؤسسة محمد حمدان العنزي</t>
-  </si>
-  <si>
-    <t>برودة هواك للأجهزة المنزلية و التكييف</t>
-  </si>
-  <si>
-    <t>سناب للاتصالات</t>
-  </si>
-  <si>
-    <t>عبدالمحسن العبدالمحسن السويلم فرع بريدة</t>
-  </si>
-  <si>
-    <t>جعفر فضل لصيانة الأجهزة - ( لابتوب - كمبيوتر - بيع مستلزمات)</t>
-  </si>
-  <si>
-    <t>بي اتش استور (BH STORE) الاجهزة الكهربائية</t>
+    <t>https://www.go...</t>
+  </si>
+  <si>
+    <t>المتجر المتزام...</t>
+  </si>
+  <si>
+    <t>رباعيات للكمبي...</t>
+  </si>
+  <si>
+    <t>مستودع واتكو ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة الرؤية ا...</t>
+  </si>
+  <si>
+    <t>مركز يزيد لصيا...</t>
+  </si>
+  <si>
+    <t>مبارك للإلكترو...</t>
+  </si>
+  <si>
+    <t>روابي القشيري ...</t>
+  </si>
+  <si>
+    <t>عالم الفلك إلا...</t>
+  </si>
+  <si>
+    <t>الرشودي- الرشو...</t>
+  </si>
+  <si>
+    <t>مؤسسة محمد حمد...</t>
+  </si>
+  <si>
+    <t>برودة هواك للأ...</t>
+  </si>
+  <si>
+    <t>سناب للاتصالات...</t>
+  </si>
+  <si>
+    <t>عبدالمحسن العب...</t>
+  </si>
+  <si>
+    <t>جعفر فضل لصيان...</t>
+  </si>
+  <si>
+    <t>بي اتش استور (...</t>
   </si>
   <si>
     <t>اي كي كمبيوتر</t>
   </si>
   <si>
-    <t>اليافعي لصيانة الحاسب الآلي</t>
-  </si>
-  <si>
-    <t>Rtx 3060 nvidia</t>
-  </si>
-  <si>
-    <t>مؤسسة ارتقاء الفضاء للحساب الالي</t>
+    <t>اليافعي لصيانة...</t>
+  </si>
+  <si>
+    <t>Rtx 3060 nvidi...</t>
+  </si>
+  <si>
+    <t>مؤسسة ارتقاء ا...</t>
   </si>
   <si>
     <t>شمسان</t>
   </si>
   <si>
-    <t>شركة مجموعة العجو للتجاره</t>
-  </si>
-  <si>
-    <t>لولوة للصيانة اللاب توبات</t>
+    <t>شركة مجموعة ال...</t>
+  </si>
+  <si>
+    <t>لولوة للصيانة ...</t>
   </si>
   <si>
     <t>جهود التقنية</t>
   </si>
   <si>
-    <t>‏المملكة للإتصالات</t>
-  </si>
-  <si>
-    <t>Logic Links For Technology Soluations</t>
-  </si>
-  <si>
-    <t>جوهرة قنا للاتصالات</t>
+    <t>‏المملكة للإتص...</t>
+  </si>
+  <si>
+    <t>Logic Links Fo...</t>
+  </si>
+  <si>
+    <t>جوهرة قنا للات...</t>
   </si>
   <si>
     <t>المستوى الأول</t>
   </si>
   <si>
-    <t>الزعيم ستور للأتصالات</t>
-  </si>
-  <si>
-    <t>عبدالله للإلكترونيات</t>
-  </si>
-  <si>
-    <t>Shopkees Trading Company</t>
-  </si>
-  <si>
-    <t>مؤسسة صدارة تكنولوجيا</t>
-  </si>
-  <si>
-    <t>الدرع الواقي للصيانة - صيانة شاشات كمبيوتر برمجة كمبيوتر برمجة رسيفرات صيانة بلاستيشن حماية ضد الكسر جميع المقاسات حتى 100</t>
+    <t>الزعيم ستور لل...</t>
+  </si>
+  <si>
+    <t>عبدالله للإلكت...</t>
+  </si>
+  <si>
+    <t>Shopkees Tradi...</t>
+  </si>
+  <si>
+    <t>مؤسسة صدارة تك...</t>
+  </si>
+  <si>
+    <t>الدرع الواقي ل...</t>
   </si>
   <si>
     <t>ورشةعرعر</t>
@@ -442,220 +148,220 @@
     <t>ماسة المحمدية</t>
   </si>
   <si>
-    <t>التقنية الحديثة للحاسبات</t>
-  </si>
-  <si>
-    <t>AL AMRO FOR COMPUTER S</t>
+    <t>التقنية الحديث...</t>
+  </si>
+  <si>
+    <t>AL AMRO FOR CO...</t>
   </si>
   <si>
     <t>مؤسسة</t>
   </si>
   <si>
-    <t>Al-watania computers</t>
-  </si>
-  <si>
-    <t>منافذ التقنية للتصالات</t>
-  </si>
-  <si>
-    <t>كمبيوتر نافذة لاب توب</t>
-  </si>
-  <si>
-    <t>مجمع السلام للاتصالات</t>
-  </si>
-  <si>
-    <t>الزقزوق للأجهزة المنزلية - معرض البقعاء حائل</t>
-  </si>
-  <si>
-    <t>شركة عبدالرحمن المحيميد للاجهزه الكهربائية</t>
-  </si>
-  <si>
-    <t>مركز المتفوقون للحاسبات الآلية</t>
-  </si>
-  <si>
-    <t>مؤسسة العبكري للتكييف والأجهزة</t>
-  </si>
-  <si>
-    <t>الراشد للأجهزة الكهربائية</t>
-  </si>
-  <si>
-    <t>النيزك للجوالات</t>
-  </si>
-  <si>
-    <t>الثبيتي للاتصالات</t>
+    <t>Al-watania com...</t>
+  </si>
+  <si>
+    <t>منافذ التقنية ...</t>
+  </si>
+  <si>
+    <t>كمبيوتر نافذة ...</t>
+  </si>
+  <si>
+    <t>مجمع السلام لل...</t>
+  </si>
+  <si>
+    <t>الزقزوق للأجهز...</t>
+  </si>
+  <si>
+    <t>شركة عبدالرحمن...</t>
+  </si>
+  <si>
+    <t>مركز المتفوقون...</t>
+  </si>
+  <si>
+    <t>مؤسسة العبكري ...</t>
+  </si>
+  <si>
+    <t>الراشد للأجهزة...</t>
+  </si>
+  <si>
+    <t>النيزك للجوالا...</t>
+  </si>
+  <si>
+    <t>الثبيتي للاتصا...</t>
   </si>
   <si>
     <t>صيانة الشاشة</t>
   </si>
   <si>
-    <t>Anowar Hossain</t>
-  </si>
-  <si>
-    <t>رفوف الحودة للاتصالات</t>
+    <t>Anowar Hossain...</t>
+  </si>
+  <si>
+    <t>رفوف الحودة لل...</t>
   </si>
   <si>
     <t>كوم لاب</t>
   </si>
   <si>
-    <t>الكترونات النجوم</t>
-  </si>
-  <si>
-    <t>مؤسسة اسيا الطائف الامنية</t>
+    <t>الكترونات النج...</t>
+  </si>
+  <si>
+    <t>مؤسسة اسيا الط...</t>
   </si>
   <si>
     <t>إل جي ناغي</t>
   </si>
   <si>
-    <t>تقني لصيانة جميع الاجهزه الإلكترونية(شاشات بلازما بلاستيشن</t>
-  </si>
-  <si>
-    <t>هديل للأتصالات</t>
-  </si>
-  <si>
-    <t>مركز الفارس لصيانة الكمبيوتر</t>
-  </si>
-  <si>
-    <t>Smart house computers</t>
-  </si>
-  <si>
-    <t>أرقمي للاكترونيات</t>
-  </si>
-  <si>
-    <t>العساكر للأجهزة الكهربائية والتكييف فرع الحراج 3</t>
-  </si>
-  <si>
-    <t>الساهر للاتصالات</t>
-  </si>
-  <si>
-    <t>مركز الياباني للبلايستيشن</t>
-  </si>
-  <si>
-    <t>باب دبي للاتصالات</t>
-  </si>
-  <si>
-    <t>مؤسسة ليث العرب التجارية للالكترونيات والمكيفات والاجهزة الكهربائية</t>
-  </si>
-  <si>
-    <t>امیر صیانه کمبيوتر تركيب الكاميرات مراقبه</t>
-  </si>
-  <si>
-    <t>الزعيم للاتصالات</t>
-  </si>
-  <si>
-    <t>مايكرونت لتقنية المعلومات</t>
-  </si>
-  <si>
-    <t>مركز العمري للاتصالات</t>
-  </si>
-  <si>
-    <t>مؤسسة جواهر عايض</t>
+    <t>تقني لصيانة جم...</t>
+  </si>
+  <si>
+    <t>هديل للأتصالات...</t>
+  </si>
+  <si>
+    <t>مركز الفارس لص...</t>
+  </si>
+  <si>
+    <t>Smart house co...</t>
+  </si>
+  <si>
+    <t>أرقمي للاكترون...</t>
+  </si>
+  <si>
+    <t>العساكر للأجهز...</t>
+  </si>
+  <si>
+    <t>الساهر للاتصال...</t>
+  </si>
+  <si>
+    <t>مركز الياباني ...</t>
+  </si>
+  <si>
+    <t>باب دبي للاتصا...</t>
+  </si>
+  <si>
+    <t>مؤسسة ليث العر...</t>
+  </si>
+  <si>
+    <t>امیر صیانه کمب...</t>
+  </si>
+  <si>
+    <t>الزعيم للاتصال...</t>
+  </si>
+  <si>
+    <t>مايكرونت لتقني...</t>
+  </si>
+  <si>
+    <t>مركز العمري لل...</t>
+  </si>
+  <si>
+    <t>مؤسسة جواهر عا...</t>
   </si>
   <si>
     <t>Badiyya</t>
   </si>
   <si>
-    <t>سنايبر قيمز - البكيرية</t>
-  </si>
-  <si>
-    <t>شركه البابطين للتجاره، المعرض الرئيسي</t>
-  </si>
-  <si>
-    <t>مركز عبدالواحد البكيري للأجهزة الكهربائية</t>
-  </si>
-  <si>
-    <t>منطقة التكنولوجيا للحاسب الآلي والإتصالات</t>
-  </si>
-  <si>
-    <t>سمارت سنتر الكتريك</t>
+    <t>سنايبر قيمز - ...</t>
+  </si>
+  <si>
+    <t>شركه البابطين ...</t>
+  </si>
+  <si>
+    <t>مركز عبدالواحد...</t>
+  </si>
+  <si>
+    <t>منطقة التكنولو...</t>
+  </si>
+  <si>
+    <t>سمارت سنتر الك...</t>
   </si>
   <si>
     <t>تقني</t>
   </si>
   <si>
-    <t>هاتف كنان لبيع الجوالات و صيانتها</t>
-  </si>
-  <si>
-    <t>مؤسسة ابراهيم عبده فلقي</t>
-  </si>
-  <si>
-    <t>مؤسسة نواف السبيعي للتجارة</t>
+    <t>هاتف كنان لبيع...</t>
+  </si>
+  <si>
+    <t>مؤسسة ابراهيم ...</t>
+  </si>
+  <si>
+    <t>مؤسسة نواف الس...</t>
   </si>
   <si>
     <t>متجر ابو تركي</t>
   </si>
   <si>
-    <t>شركة سهام الشرق للتبريد والتكييف</t>
-  </si>
-  <si>
-    <t>Doum Computers</t>
-  </si>
-  <si>
-    <t>الدرعية الرياض</t>
-  </si>
-  <si>
-    <t>مؤسسة دار البوصلة للتجارة ( وكيل ايكوم icom )</t>
-  </si>
-  <si>
-    <t>مؤسسة نجوم تقني التجارية</t>
-  </si>
-  <si>
-    <t>FALS electronic</t>
-  </si>
-  <si>
-    <t>Noura Saedan Al-Shaibani Information Technology</t>
-  </si>
-  <si>
-    <t>البرنس للصيانة حاسب</t>
-  </si>
-  <si>
-    <t>بصمة إبداع دش وكاميرات</t>
-  </si>
-  <si>
-    <t>ركن الخليل للعطوار</t>
-  </si>
-  <si>
-    <t>Al-Majd Al-Thani Establishment for Electronic Devices</t>
-  </si>
-  <si>
-    <t>تلفون تبوك للاتصالات</t>
-  </si>
-  <si>
-    <t>مؤسسة طموح عالم للتجارة</t>
-  </si>
-  <si>
-    <t>OHOD ELECTRIC MADINA-3 BRANCH</t>
-  </si>
-  <si>
-    <t>مشكاة البلد التجارية</t>
-  </si>
-  <si>
-    <t>SYSTEM ELACTRONICS THUWAL</t>
-  </si>
-  <si>
-    <t>مؤسسة خطوط الحاسب للتجارة</t>
-  </si>
-  <si>
-    <t>متجر أجهزة إلكترونية</t>
-  </si>
-  <si>
-    <t>متجر أجهزة كمبيوتر</t>
-  </si>
-  <si>
-    <t>ورشة إصلاح إلكترونيات</t>
-  </si>
-  <si>
-    <t>متجر أكسسوارات الكمبيوتر</t>
-  </si>
-  <si>
-    <t>خدمة إصلاح أجهزة كمبيوتر</t>
-  </si>
-  <si>
-    <t>متجر بيع أجهزة</t>
+    <t>شركة سهام الشر...</t>
+  </si>
+  <si>
+    <t>Doum Computers...</t>
+  </si>
+  <si>
+    <t>الدرعية الرياض...</t>
+  </si>
+  <si>
+    <t>مؤسسة دار البو...</t>
+  </si>
+  <si>
+    <t>مؤسسة نجوم تقن...</t>
+  </si>
+  <si>
+    <t>FALS electroni...</t>
+  </si>
+  <si>
+    <t>Noura Saedan A...</t>
+  </si>
+  <si>
+    <t>البرنس للصيانة...</t>
+  </si>
+  <si>
+    <t>بصمة إبداع دش ...</t>
+  </si>
+  <si>
+    <t>ركن الخليل للع...</t>
+  </si>
+  <si>
+    <t>Al-Majd Al-Tha...</t>
+  </si>
+  <si>
+    <t>تلفون تبوك للا...</t>
+  </si>
+  <si>
+    <t>مؤسسة طموح عال...</t>
+  </si>
+  <si>
+    <t>OHOD ELECTRIC ...</t>
+  </si>
+  <si>
+    <t>مشكاة البلد ال...</t>
+  </si>
+  <si>
+    <t>SYSTEM ELACTRO...</t>
+  </si>
+  <si>
+    <t>مؤسسة خطوط الح...</t>
+  </si>
+  <si>
+    <t>متجر أجهزة إلك...</t>
+  </si>
+  <si>
+    <t>متجر أجهزة كمب...</t>
+  </si>
+  <si>
+    <t>ورشة إصلاح إلك...</t>
+  </si>
+  <si>
+    <t>متجر أكسسوارات...</t>
+  </si>
+  <si>
+    <t>خدمة إصلاح أجه...</t>
+  </si>
+  <si>
+    <t>متجر بيع أجهزة...</t>
   </si>
   <si>
     <t>متجر كاميرات</t>
   </si>
   <si>
-    <t>متجر مستلزمات إلكترونيات بالجملة</t>
+    <t>متجر مستلزمات ...</t>
   </si>
   <si>
     <t>4.6</t>
@@ -859,301 +565,298 @@
     <t>14</t>
   </si>
   <si>
-    <t>بجانب مستوصف منبر الهدى ومطعم السولدير, شارع المحمدية العام, الهفوف‎ 36421، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>X653+PG8، طريق الملك عبدالعزيز، الحي الإداري، سكاكا 72341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>C48P+H63، الخالدية الشمالية، الدمام 32232، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الإمام محمد بن سعود، المنار، الدمام 32274، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8555، ينبع الصناعية، ينبع 46451 5470، 46451، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4377 سدير، 7267 Badi Az Zaman Al Hamadhani, AZ Zahrah, Riyadh 12985 12211، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>PM3R+WPW، شارع عبدالله بن الحمدان ، سليمانية، السليمانية، الرياض 12242، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الرياض، النصب، أبها 62521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الامير مقرن بن عبدالعزيز، لبدة، حائل 55428، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CH2M+MVV، الخليل بن أحمد، بجانب أسترا، سلطانة، سلطانة، تبوك 47311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الأمير مساعد بن عبدالرحمن بن فيصل، العريجاء الغربية، الرياض 12976، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الملك فهد بن عبدالعزيز، الفيصلية، النعيرية 31982، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>السادة، حي السادة، بريدة 52354، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2271، القطيف‎ 32652، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CHHF+G2P، طريق الظهران، المبرز، الاحساء المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>76J3+CRF، الخبر الجنوبية، الخبر 34621، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع عامر بن سلمة، العريض، المدينة المنورة 42314، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>MMJR+H6F، العليا، الرياض 52459، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JP75+F53، عتيقة، العدوة، الشميسي, الرياض 12653، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6GW6+JM4، الشرفية، أبها 62542، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9W9J+43R، طريق الملك عبد العزيز، البشر، البشر، بريدة 52376، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9HXG+X45 حي، طريق الملك فهد، السليمانية، تبوك 47312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6HJV+F98, شارع العام, الموظفين، أبها 62583، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7484 الملك فهد، DYJA2708، 2708، مهد الذهب 44446، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G5MX+J99, Makkronah St., جدة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7JF7+3QR مدينة سلطان، المحالة، أبها 62564، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الضيافة،، حي, 3231 قصر الضيافة، 7971،، مكة 24221،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road, الزهور،، تثليث 69323، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>FJG5+CJ2، ابو عسيب، المصانع، المدينة المنورة 42313، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Khalid bin walid street, Ash Sharafiya Dist, جدة 23216، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الامير مشهور، الجبيل البلد، الجبيل 35514، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6195 ابو بكر الصديق، أحد، الدمام 32263 3584،، الدمام 32263، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2916 Khadijah Bint Khuwailid, 7104, عرعر 73244، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6905 الشيخ علي حمد الصالحي، حي الصالحية، QAGB2584، 2584، عنيزة 56437، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8XFC+74H، حي الجردة، بريدة 52354، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6G9W+4VV، المنسك، أبها 62527، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الأمير متعب بن عبدالعزيز، الربوة، الرياض 12834، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CG6H+G43، المتنبي، الروضة، تبوك 47711، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>584C+JR3، طريق الأمير سطام بن عبدالعزيز، الريان، الخرج 16278، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك فيصل، شمال الضباط، نجران 66262، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع أبي بكر الصديق، مقابل مسجد الزليباني ( الجامع الكبير ) ينبع البلد، دوار السمكة، ينبع البحر 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7608 عائشة بنت أبي بكر، 5193، شبرا، الرياض 12988، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>مسجد, عمر بن الخطاب, بقعاء الشارع العام بجوار, بقعاء المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8099 الامير سلطان بن عبد العزيز, الخالدية، حفر الباطن 39953، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2877, 7822، الفيصلية الجنوبية، 7822, تبوك 47911، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G2PG+CJJ، شارع ٦ (ﻫ)، المجيدية، القطيف‎ 32631، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9GPX+J6F، عين نجم، المبرز 36421، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G6M7+W62، طريق الملك سلمان بن عبدالعزيز، نجران 66262، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الستين، حي سلطانة، الطائف 26576، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2J7W+52R، طريق الملك فهد، الجبيل البلد، الجبيل 35514، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الندوة، 3119 التراث، 8153, الرياض 14814، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7432 عائشة بنت ابي بكر، ظهرة البديعة، الرياض 12981 4473، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2637 عقبه بن نافع، 2637, 6683، خالد بن الوليد ، الشارع العام ، حي الشرفية، الشرفية،، جدة 23216، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الملك فيصل، الخالدية، أبو عريش 84711، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2568 خالد بن الوليد, حي الشرقية، الطائف 26523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق عمر بن الخطاب، حي النهضة، بريدة 52388، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8597 الأمير فيصل بن فهد، حي المحمدية، SHAA4026، 4026، عرعر 73311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6746، 4479، المعلمين، الهفوف والمبرز 36361، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8010 شارع خالد بن وليد، الشرفية، جدة 23218، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Salhiya computers shop, no 10, الوشام، الرياض 12211، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك فهد، الخالدية، الزلفي 15941، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HPRJ+RVX، حراج بن قاسم، منفوحة، الرياض 12685، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G2WQ+R39، الحزام الدائري، الفيصلية، محايل عسير 63712، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2967 طريق الملك فهد، النهضة، الخرج 16439، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>VF8X+88C, 340، الحناكية 42637،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road، الجبيل 35514، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع ابوبکر صدیق, بدر، الدمام 32263، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7R4V+76J، رنية 29812، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7715 حي, جوهرة، طريق الأمير ماجد بن عبدالعزيز, عرعر 73551، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2734 عثمان بن عفان، البادية، الدمام 32243 6268، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7PXH+QMJ، طريق الملك خالد، حي الروضة، خميس مشيط 62461، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JM22+PMF، طريق معاوية ابن ابي سفيان، ظهرة البديعة، الرياض 12783، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>عبدالرحمن بن محمد العواد، الهلالية، البكيرية 52728، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>WH42+8XW، طريق الأمير سلطان، الشاطيء، جازان 82725، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6658، الزرقاء، الباحة 65525، 65525، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2908 6905 انطاكية، اشبيلية، الرياض 13225، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Q3FV+M48، الشراع، الأمير عبدالمجيد، حي، جدة 23816، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الأمير نواف, الاحساء، الهفوف‎ 36362، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق خالد بن الوليد، العنابس، المدينة المنورة 42312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6030 King Abdullah Bin Abdul Aziz Road، البلد، AXSA3430، 3430، محايل عسير 63711، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>FMJM+FW4، طريق الأمير مقرن بن عبد العزيز، مخطط باقدو، المبعوث، المدينة المنورة 42362، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الشيخ محمد بن عثيمين، الوسطى، عنيزة 56466، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، EMDA6685، 6685 15، 4607، الخليج، الدمام 32425، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>خالد بن الوليد، الشرفية، جدة 23218، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4911 آل شلهوب، الدرعية الجديدة، RDDA8483، 8483، الدرعية 13734، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3351، حي الربيع، بريدة 52361 7911،، بريدة 52361، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7456، المستودعات، عنيزة 56463 3124، 56463، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع أسد الكناني، الدوحة الشمالية، الظهران 34257، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي العليا, Al olaiya,Al saif group , first floor,shop no 15.RHOB6268، 6268 العليا، 3953, الرياض 12211، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9HXG+JJR، طريق الملك فهد، السليمانية، تبوك 47312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road, حي الاخباب، الطائف 26724، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6125-6157 ابراهيم الخليل، الهجلة، مكة 24231، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Shop No, 6659 King Fahad Bin Abdul Aziz Street, Al Faisaliyah District, النعيرية 37481، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>KGAK3458 طيبة، 7171، تبوك 47912، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الشيخ عبد العزيز بن محمد بن علي، شارع الشيخ عبدالعزيز، الرياض 12981، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالله الفرعي، السد، المدينة المنورة 42382، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>جوار محطة منصور للبترول، حي العسيلة، مكة 24421، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8641, Thuwal 23953 4866 المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HRFH+M3W، الاسكان، طريق الخرج، السمع بن مالك، حي، الرياض المملكة العربية السعودية</t>
+    <t>بجانب مستوصف م...</t>
+  </si>
+  <si>
+    <t>X653+PG8، طريق...</t>
+  </si>
+  <si>
+    <t>C48P+H63، الخا...</t>
+  </si>
+  <si>
+    <t>شارع الإمام مح...</t>
+  </si>
+  <si>
+    <t>8555، ينبع الص...</t>
+  </si>
+  <si>
+    <t>4377 سدير، 726...</t>
+  </si>
+  <si>
+    <t>PM3R+WPW، شارع...</t>
+  </si>
+  <si>
+    <t>الرياض، النصب،...</t>
+  </si>
+  <si>
+    <t>الامير مقرن بن...</t>
+  </si>
+  <si>
+    <t>CH2M+MVV، الخل...</t>
+  </si>
+  <si>
+    <t>شارع الأمير مس...</t>
+  </si>
+  <si>
+    <t>الملك فهد بن ع...</t>
+  </si>
+  <si>
+    <t>السادة، حي الس...</t>
+  </si>
+  <si>
+    <t>2271، القطيف‎ ...</t>
+  </si>
+  <si>
+    <t>CHHF+G2P، طريق...</t>
+  </si>
+  <si>
+    <t>76J3+CRF، الخب...</t>
+  </si>
+  <si>
+    <t>شارع عامر بن س...</t>
+  </si>
+  <si>
+    <t>MMJR+H6F، العل...</t>
+  </si>
+  <si>
+    <t>JP75+F53، عتيق...</t>
+  </si>
+  <si>
+    <t>6GW6+JM4، الشر...</t>
+  </si>
+  <si>
+    <t>9W9J+43R، طريق...</t>
+  </si>
+  <si>
+    <t>9HXG+X45 حي، ط...</t>
+  </si>
+  <si>
+    <t>6HJV+F98, شارع...</t>
+  </si>
+  <si>
+    <t>7484 الملك فهد...</t>
+  </si>
+  <si>
+    <t>G5MX+J99, Makk...</t>
+  </si>
+  <si>
+    <t>7JF7+3QR مدينة...</t>
+  </si>
+  <si>
+    <t>الضيافة،، حي, ...</t>
+  </si>
+  <si>
+    <t>Unnamed Road, ...</t>
+  </si>
+  <si>
+    <t>FJG5+CJ2، ابو ...</t>
+  </si>
+  <si>
+    <t>Khalid bin wal...</t>
+  </si>
+  <si>
+    <t>طريق الامير مش...</t>
+  </si>
+  <si>
+    <t>6195 ابو بكر ا...</t>
+  </si>
+  <si>
+    <t>2916 Khadijah ...</t>
+  </si>
+  <si>
+    <t>6905 الشيخ علي...</t>
+  </si>
+  <si>
+    <t>8XFC+74H، حي ا...</t>
+  </si>
+  <si>
+    <t>6G9W+4VV، المن...</t>
+  </si>
+  <si>
+    <t>شارع الأمير مت...</t>
+  </si>
+  <si>
+    <t>CG6H+G43، المت...</t>
+  </si>
+  <si>
+    <t>584C+JR3، طريق...</t>
+  </si>
+  <si>
+    <t>طريق الملك فيص...</t>
+  </si>
+  <si>
+    <t>شارع أبي بكر ا...</t>
+  </si>
+  <si>
+    <t>7608 عائشة بنت...</t>
+  </si>
+  <si>
+    <t>مسجد, عمر بن ا...</t>
+  </si>
+  <si>
+    <t>8099 الامير سل...</t>
+  </si>
+  <si>
+    <t>2877, 7822، ال...</t>
+  </si>
+  <si>
+    <t>G2PG+CJJ، شارع...</t>
+  </si>
+  <si>
+    <t>9GPX+J6F، عين ...</t>
+  </si>
+  <si>
+    <t>G6M7+W62، طريق...</t>
+  </si>
+  <si>
+    <t>شارع الستين، ح...</t>
+  </si>
+  <si>
+    <t>2J7W+52R، طريق...</t>
+  </si>
+  <si>
+    <t>حي الندوة، 311...</t>
+  </si>
+  <si>
+    <t>7432 عائشة بنت...</t>
+  </si>
+  <si>
+    <t>2637 عقبه بن ن...</t>
+  </si>
+  <si>
+    <t>شارع الملك فيص...</t>
+  </si>
+  <si>
+    <t>2568 خالد بن ا...</t>
+  </si>
+  <si>
+    <t>طريق عمر بن ال...</t>
+  </si>
+  <si>
+    <t>8597 الأمير في...</t>
+  </si>
+  <si>
+    <t>6746، 4479، ال...</t>
+  </si>
+  <si>
+    <t>8010 شارع خالد...</t>
+  </si>
+  <si>
+    <t>Salhiya comput...</t>
+  </si>
+  <si>
+    <t>طريق الملك فهد...</t>
+  </si>
+  <si>
+    <t>HPRJ+RVX، حراج...</t>
+  </si>
+  <si>
+    <t>G2WQ+R39، الحز...</t>
+  </si>
+  <si>
+    <t>2967 طريق المل...</t>
+  </si>
+  <si>
+    <t>VF8X+88C, 340،...</t>
+  </si>
+  <si>
+    <t>Unnamed Road، ...</t>
+  </si>
+  <si>
+    <t>شارع ابوبکر صد...</t>
+  </si>
+  <si>
+    <t>7R4V+76J، رنية...</t>
+  </si>
+  <si>
+    <t>7715 حي, جوهرة...</t>
+  </si>
+  <si>
+    <t>2734 عثمان بن ...</t>
+  </si>
+  <si>
+    <t>7PXH+QMJ، طريق...</t>
+  </si>
+  <si>
+    <t>JM22+PMF، طريق...</t>
+  </si>
+  <si>
+    <t>عبدالرحمن بن م...</t>
+  </si>
+  <si>
+    <t>WH42+8XW، طريق...</t>
+  </si>
+  <si>
+    <t>6658، الزرقاء،...</t>
+  </si>
+  <si>
+    <t>2908 6905 انطا...</t>
+  </si>
+  <si>
+    <t>Q3FV+M48، الشر...</t>
+  </si>
+  <si>
+    <t>شارع الأمير نو...</t>
+  </si>
+  <si>
+    <t>طريق خالد بن ا...</t>
+  </si>
+  <si>
+    <t>6030 King Abdu...</t>
+  </si>
+  <si>
+    <t>FMJM+FW4، طريق...</t>
+  </si>
+  <si>
+    <t>طريق الشيخ محم...</t>
+  </si>
+  <si>
+    <t>حي، EMDA6685، ...</t>
+  </si>
+  <si>
+    <t>خالد بن الوليد...</t>
+  </si>
+  <si>
+    <t>4911 آل شلهوب،...</t>
+  </si>
+  <si>
+    <t>3351، حي الربي...</t>
+  </si>
+  <si>
+    <t>7456، المستودع...</t>
+  </si>
+  <si>
+    <t>شارع أسد الكنا...</t>
+  </si>
+  <si>
+    <t>حي العليا, Al ...</t>
+  </si>
+  <si>
+    <t>9HXG+JJR، طريق...</t>
+  </si>
+  <si>
+    <t>6125-6157 ابرا...</t>
+  </si>
+  <si>
+    <t>Shop No, 6659 ...</t>
+  </si>
+  <si>
+    <t>KGAK3458 طيبة،...</t>
+  </si>
+  <si>
+    <t>الشيخ عبد العز...</t>
+  </si>
+  <si>
+    <t>طريق الملك عبد...</t>
+  </si>
+  <si>
+    <t>جوار محطة منصو...</t>
+  </si>
+  <si>
+    <t>8641, Thuwal 2...</t>
+  </si>
+  <si>
+    <t>HRFH+M3W، الاس...</t>
   </si>
   <si>
     <t>+966535835050</t>
@@ -1384,58 +1087,55 @@
     <t>+966562903054</t>
   </si>
   <si>
-    <t>http://www.sync.sa/</t>
-  </si>
-  <si>
-    <t>http://www.rashodi.com/</t>
-  </si>
-  <si>
-    <t>https://burudathwak.com/</t>
-  </si>
-  <si>
-    <t>https://www.shopkees.sa/</t>
-  </si>
-  <si>
-    <t>https://screen-shield-electronics.com/</t>
-  </si>
-  <si>
-    <t>https://wa.me/message/26IZRV256TMQD1</t>
-  </si>
-  <si>
-    <t>https://salla.sa/ram64pc/</t>
-  </si>
-  <si>
-    <t>http://www.te-ports.com/</t>
-  </si>
-  <si>
-    <t>http://www.zagzoog.com/</t>
-  </si>
-  <si>
-    <t>https://almohaemed.com/</t>
-  </si>
-  <si>
-    <t>https://shop.lg.com/sa_en</t>
-  </si>
-  <si>
-    <t>https://electronics-store-17308.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>http://instagram.com/1.x5x</t>
-  </si>
-  <si>
-    <t>https://sniper-games.com.sa/</t>
-  </si>
-  <si>
-    <t>http://www.abt.com.sa/</t>
-  </si>
-  <si>
-    <t>https://salla.sa/techzonesa</t>
-  </si>
-  <si>
-    <t>https://doum.sa/</t>
-  </si>
-  <si>
-    <t>http://meshkatalbalad.com/</t>
+    <t>http://www.syn...</t>
+  </si>
+  <si>
+    <t>http://www.ras...</t>
+  </si>
+  <si>
+    <t>https://buruda...</t>
+  </si>
+  <si>
+    <t>https://www.sh...</t>
+  </si>
+  <si>
+    <t>https://screen...</t>
+  </si>
+  <si>
+    <t>https://wa.me/...</t>
+  </si>
+  <si>
+    <t>https://salla....</t>
+  </si>
+  <si>
+    <t>http://www.te-...</t>
+  </si>
+  <si>
+    <t>http://www.zag...</t>
+  </si>
+  <si>
+    <t>https://almoha...</t>
+  </si>
+  <si>
+    <t>https://shop.l...</t>
+  </si>
+  <si>
+    <t>https://electr...</t>
+  </si>
+  <si>
+    <t>http://instagr...</t>
+  </si>
+  <si>
+    <t>https://sniper...</t>
+  </si>
+  <si>
+    <t>http://www.abt...</t>
+  </si>
+  <si>
+    <t>https://doum.s...</t>
+  </si>
+  <si>
+    <t>http://meshkat...</t>
   </si>
 </sst>
 </file>
@@ -1843,2180 +1543,2180 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" t="s">
         <v>281</v>
       </c>
-      <c r="G2" t="s">
-        <v>380</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>456</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
         <v>282</v>
-      </c>
-      <c r="G3" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="G5" t="s">
-        <v>382</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>286</v>
+        <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="G10" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>457</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="G11" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="G12" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>458</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="G13" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="G14" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="G15" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="G16" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>296</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>297</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>299</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>396</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
         <v>129</v>
       </c>
-      <c r="C24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" t="s">
-        <v>227</v>
-      </c>
       <c r="E24" t="s">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="F24" t="s">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>398</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" t="s">
         <v>206</v>
       </c>
-      <c r="D25" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" t="s">
-        <v>258</v>
-      </c>
-      <c r="F25" t="s">
-        <v>304</v>
-      </c>
       <c r="G25" t="s">
-        <v>399</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
-        <v>307</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="F30" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="G30" t="s">
-        <v>402</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="F31" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="G31" t="s">
-        <v>403</v>
+        <v>304</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>459</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="F32" t="s">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="G32" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
         <v>214</v>
       </c>
-      <c r="E33" t="s">
-        <v>262</v>
-      </c>
-      <c r="F33" t="s">
-        <v>312</v>
-      </c>
       <c r="G33" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>460</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="G34" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="G35" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="F36" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="G36" t="s">
-        <v>408</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="G37" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
         <v>219</v>
       </c>
-      <c r="E38" t="s">
-        <v>249</v>
-      </c>
-      <c r="F38" t="s">
-        <v>317</v>
-      </c>
       <c r="G38" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>461</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>462</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="G40" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="G41" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>463</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="F42" t="s">
-        <v>321</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="G43" t="s">
-        <v>413</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="G44" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>464</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>465</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>227</v>
       </c>
       <c r="G46" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="F47" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="G47" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F48" t="s">
-        <v>327</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="F50" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="G50" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="F51" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F52" t="s">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="G52" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="F53" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="G53" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="F54" t="s">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="G54" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="E55" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="F55" t="s">
-        <v>334</v>
+        <v>236</v>
       </c>
       <c r="G55" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="F56" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="E57" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="F57" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="G57" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>466</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="F58" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="G58" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="F59" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="F60" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="G60" t="s">
-        <v>425</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="E61" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F61" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="G61" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="F62" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
       <c r="G62" t="s">
-        <v>427</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="F63" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="G63" t="s">
-        <v>428</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="F64" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="E65" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="F65" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="G65" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>467</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F66" t="s">
-        <v>345</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="F67" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="G67" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" t="s">
         <v>249</v>
       </c>
-      <c r="F68" t="s">
-        <v>347</v>
-      </c>
       <c r="G68" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F69" t="s">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>468</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="E70" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="F70" t="s">
-        <v>349</v>
+        <v>251</v>
       </c>
       <c r="G70" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="E71" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="F71" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="G71" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F72" t="s">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c r="G72" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="F73" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="F74" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="G74" t="s">
-        <v>435</v>
+        <v>336</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>469</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="E75" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="F75" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="G75" t="s">
-        <v>436</v>
+        <v>337</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>470</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="F76" t="s">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="G76" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="E77" t="s">
-        <v>276</v>
+        <v>178</v>
       </c>
       <c r="F77" t="s">
-        <v>356</v>
+        <v>258</v>
       </c>
       <c r="G77" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>471</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="E78" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="F78" t="s">
-        <v>357</v>
+        <v>259</v>
       </c>
       <c r="G78" t="s">
-        <v>439</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="E79" t="s">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="F79" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="G79" t="s">
-        <v>440</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="E80" t="s">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="F80" t="s">
-        <v>359</v>
+        <v>261</v>
       </c>
       <c r="G80" t="s">
-        <v>441</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E81" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>360</v>
+        <v>262</v>
       </c>
       <c r="G81" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="F82" t="s">
-        <v>361</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="E83" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="F83" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="G83" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="E84" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="F84" t="s">
-        <v>363</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="E85" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>364</v>
+        <v>266</v>
       </c>
       <c r="G85" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="E86" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="F86" t="s">
-        <v>365</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D87" t="s">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="F87" t="s">
-        <v>366</v>
+        <v>268</v>
       </c>
       <c r="G87" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E88" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="F88" t="s">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="G88" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="F89" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
       <c r="G89" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="F90" t="s">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="G90" t="s">
-        <v>448</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="F91" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="D92" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="E92" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="F92" t="s">
-        <v>371</v>
+        <v>210</v>
       </c>
       <c r="G92" t="s">
-        <v>449</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="E93" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="F93" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="D94" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E94" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F94" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="G94" t="s">
-        <v>450</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E95" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F95" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="G95" t="s">
-        <v>451</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="F96" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="G96" t="s">
-        <v>452</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D97" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="E97" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="F97" t="s">
-        <v>376</v>
+        <v>277</v>
       </c>
       <c r="G97" t="s">
-        <v>453</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="E98" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="G98" t="s">
-        <v>454</v>
+        <v>355</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>473</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E99" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F99" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="G99" t="s">
-        <v>455</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="F100" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
